--- a/db설계_0714.xlsx
+++ b/db설계_0714.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc15\DOCUME~1\카카오~1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Taek\springpj\web05\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,8 @@
     <sheet name="basket" sheetId="9" r:id="rId13"/>
     <sheet name="codemaster" sheetId="10" r:id="rId14"/>
     <sheet name="logmaster" sheetId="15" r:id="rId15"/>
-    <sheet name="qna" sheetId="6" r:id="rId16"/>
+    <sheet name="review" sheetId="6" r:id="rId16"/>
+    <sheet name="dd" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="312">
   <si>
     <t>이메일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -440,42 +441,6 @@
   </si>
   <si>
     <t>varchar(4000)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qna</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qroot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qstep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qindent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부모 식별번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문/답변</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>들여쓰기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 : 질문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 : 답변</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -761,19 +726,6 @@
 code varchar(30) not null,
 name varchar(100) not null,
 unique index(code));</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create table qna(
-seq int auto_increment primary key,  /* 식별번호 */
-cus_seq int not null,     /* 고객 식별번호 */
-qroot int not null,      /* 부모 식별번호 */
-qstep int not null,      /* 1:질문 2:답변 */
-qindent int not null,     /* 들여쓰기(px단위) */
-title varchar(200),      /* qna 제목 */
-content varchar(4000),     /* qna 내용 */
-cnt int default 0,      /* 조회수 */
-regdate datetime);      /* 작성일 */</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1251,14 +1203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>create table logmaster(
-seq int auto_increment primary key,   /* 식별번호 */
-cus_seq int not null,     /* 고객 식별번호 */
-code varchar(10) not null,     /* 값 */
-value varchar(50) not null);     /* 명칭 */</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>insert into logmaster(cus_seq,code,value)
 values(2,'vp','p1111');</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1480,6 +1424,145 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">  create table re_comment(
+  seq int auto_increment primary key,   /* 식별번호 */
+  cus_seq int not null,     /* 고객식별 */
+  comment_seq int not null,     /* 댓글식별 */
+  content varchar(200) not null,    /* 내용 */
+  rec int default 0,       /* 추천 */
+  regdate datetime default now()    /* 작성일 */
+  );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> insert into re_comment (cus_seq,comment_seq,content)
+ values (14,2,'zz')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 식별번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 식별번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>star</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table review(
+seq int auto_increment primary key,  /* 식별번호 */
+cus_seq int not null,     /* 고객 식별번호 */
+p_seq int not null,      /* 상품 식별번호 */
+title varchar(200),      /* qna 제목 */
+content varchar(4000),     /* qna 내용 */
+cnt int default 0,      /* 조회수 */
+regdate datetime);      /* 작성일 */</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table logmaster(
+seq int auto_increment primary key,   /* 식별번호 */
+cus_seq int not null,     /* 고객 식별번호 */
+code varchar(10) not null,     /* 값 */
+value varchar(50) not null);     /* 명칭 */</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>editdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table review(
+seq int auto_increment primary key,   /* 식별번호 */
+cus_seq int not null,
+p_seq int not null,
+title varchar(200) not null,
+content varchar(4000) not null,
+cnt int default 0,
+rec int default 0,
+reply_cnt int default 0,
+regdate datetime default now(),
+editdate datetime default now(),
+star int not null
+);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품식별번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>star</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">create table board(
 seq int auto_increment primary key,  /* 식별번호 */
 cus_seq int not null,     /* 고객 식별번호 */
@@ -1493,8 +1576,15 @@
 qna_cnt int default 0,  /* 답변 수 */
 reply_cnt int default 0, /* 댓글 수 */
 regdate datetime default now(),  /* 작성일 */      
-editdate datetime default now());   /* 수정일 */          
+editdate datetime default now(),   /* 수정일 */   
+p_seq int default 0,
+star int default 0
+);        
     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 : 이용후기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1754,7 +1844,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1855,6 +1945,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2325,7 +2424,7 @@
         <v>53</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
@@ -2375,7 +2474,7 @@
         <v>50</v>
       </c>
       <c r="Q4" s="25" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
@@ -2425,11 +2524,11 @@
         <v>54</v>
       </c>
       <c r="Q5" s="25" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="44" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -2463,14 +2562,14 @@
       <c r="Q6" s="25"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="42"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="14" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -2485,7 +2584,7 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="43"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2505,7 +2604,7 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="44" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="2"/>
@@ -2529,7 +2628,7 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="42"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
         <v>9</v>
@@ -2551,7 +2650,7 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="42"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
         <v>10</v>
@@ -2573,7 +2672,7 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="42"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="2"/>
       <c r="D12" s="4"/>
       <c r="E12" s="2" t="s">
@@ -2593,7 +2692,7 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="42"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
@@ -2613,7 +2712,7 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="42"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
@@ -2633,7 +2732,7 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="43"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
         <v>13</v>
@@ -2650,66 +2749,66 @@
       <c r="L15" s="1"/>
       <c r="M15" s="2"/>
       <c r="N15" s="11" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="1"/>
     </row>
     <row r="18" spans="2:16" ht="310.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="40"/>
+      <c r="B18" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="43"/>
     </row>
     <row r="19" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
+      <c r="B19" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="36"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2727,8 +2826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2743,7 +2842,7 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="32" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
@@ -2757,13 +2856,13 @@
         <v>92</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>94</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>51</v>
@@ -2780,13 +2879,13 @@
         <v>93</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>97</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>99</v>
@@ -2803,7 +2902,7 @@
         <v>33</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="F5" s="31" t="s">
         <v>100</v>
@@ -2816,7 +2915,7 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="44" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="31" t="s">
@@ -2826,7 +2925,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="F6" s="31"/>
       <c r="G6" s="31" t="s">
@@ -2835,7 +2934,7 @@
       <c r="H6" s="31"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="42"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="31" t="s">
         <v>11</v>
       </c>
@@ -2846,7 +2945,7 @@
       <c r="H7" s="31"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="43"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="31" t="s">
         <v>7</v>
       </c>
@@ -2857,7 +2956,7 @@
       <c r="H8" s="31"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="44" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="31"/>
@@ -2868,7 +2967,7 @@
       <c r="H9" s="31"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="42"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="31"/>
       <c r="D10" s="10"/>
       <c r="E10" s="31"/>
@@ -2877,7 +2976,7 @@
       <c r="H10" s="31"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="42"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="31"/>
       <c r="D11" s="10"/>
       <c r="E11" s="31"/>
@@ -2886,7 +2985,7 @@
       <c r="H11" s="31"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="42"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="31"/>
       <c r="E12" s="31"/>
       <c r="F12" s="31"/>
@@ -2894,7 +2993,7 @@
       <c r="H12" s="31"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="42"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="31"/>
       <c r="D13" s="10"/>
       <c r="E13" s="31"/>
@@ -2903,7 +3002,7 @@
       <c r="H13" s="31"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="42"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="31"/>
       <c r="D14" s="10"/>
       <c r="E14" s="31"/>
@@ -2912,7 +3011,7 @@
       <c r="H14" s="31"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="43"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="31"/>
       <c r="D15" s="10"/>
       <c r="E15" s="31"/>
@@ -2921,67 +3020,71 @@
       <c r="H15" s="31"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="47"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
+      <c r="B18" s="50" t="s">
+        <v>283</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
     </row>
     <row r="22" spans="2:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="47"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
+      <c r="B23" s="50" t="s">
+        <v>284</v>
+      </c>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3027,7 +3130,7 @@
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
@@ -3041,40 +3144,40 @@
         <v>55</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>76</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>92</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>51</v>
@@ -3091,43 +3194,43 @@
         <v>56</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>38</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
@@ -3181,7 +3284,7 @@
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="47" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -3211,13 +3314,13 @@
       <c r="Q6" s="8"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="44"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="11" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -3233,7 +3336,7 @@
       <c r="Q7" s="8"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="44"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="8" t="s">
         <v>7</v>
       </c>
@@ -3253,16 +3356,16 @@
       <c r="Q8" s="8"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="29"/>
       <c r="E9" s="8" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="29"/>
@@ -3277,14 +3380,14 @@
       <c r="Q9" s="8"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="44"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="8"/>
       <c r="D10" s="29"/>
       <c r="E10" s="8" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="29"/>
@@ -3299,11 +3402,11 @@
       <c r="Q10" s="8"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="44"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="8"/>
       <c r="D11" s="29"/>
       <c r="E11" s="8" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -3319,7 +3422,7 @@
       <c r="Q11" s="8"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="44"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="8"/>
       <c r="D12" s="29"/>
       <c r="E12" s="8"/>
@@ -3337,7 +3440,7 @@
       <c r="Q12" s="8"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="44"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="8"/>
       <c r="D13" s="29"/>
       <c r="E13" s="8"/>
@@ -3355,7 +3458,7 @@
       <c r="Q13" s="8"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="44"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="8"/>
       <c r="D14" s="29"/>
       <c r="E14" s="8"/>
@@ -3373,7 +3476,7 @@
       <c r="Q14" s="8"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="44"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="8"/>
       <c r="D15" s="29"/>
       <c r="E15" s="8"/>
@@ -3391,242 +3494,242 @@
       <c r="Q15" s="8"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="47" t="s">
-        <v>258</v>
-      </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
+      <c r="B18" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="44"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="44"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="44"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="44"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
     </row>
     <row r="28" spans="2:17" ht="185.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="44"/>
-      <c r="Q28" s="44"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="47"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B29" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="44"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="44"/>
+      <c r="B29" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="47"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="44"/>
-      <c r="O30" s="44"/>
-      <c r="P30" s="44"/>
-      <c r="Q30" s="44"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3665,7 +3768,7 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -3692,7 +3795,7 @@
         <v>65</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -3712,10 +3815,10 @@
         <v>56</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -3748,7 +3851,7 @@
       <c r="L5" s="8"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="47" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -3771,7 +3874,7 @@
       <c r="L6" s="8"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="44"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
@@ -3786,7 +3889,7 @@
       <c r="L7" s="8"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="44"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="8" t="s">
         <v>7</v>
       </c>
@@ -3801,7 +3904,7 @@
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="8"/>
@@ -3816,7 +3919,7 @@
       <c r="L9" s="8"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="44"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -3829,7 +3932,7 @@
       <c r="L10" s="8"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="44"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -3842,7 +3945,7 @@
       <c r="L11" s="8"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="44"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -3855,7 +3958,7 @@
       <c r="L12" s="8"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="44"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -3868,7 +3971,7 @@
       <c r="L13" s="8"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="44"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -3881,7 +3984,7 @@
       <c r="L14" s="8"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="44"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -3894,138 +3997,138 @@
       <c r="L15" s="8"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="47" t="s">
-        <v>259</v>
-      </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
+      <c r="B18" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B26" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="60"/>
+      <c r="B26" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="63"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B27" s="61"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="63"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4058,7 +4161,7 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -4079,7 +4182,7 @@
         <v>65</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>51</v>
@@ -4096,13 +4199,13 @@
         <v>93</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
@@ -4126,7 +4229,7 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="47" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -4140,7 +4243,7 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="44"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
@@ -4150,7 +4253,7 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="44"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="8" t="s">
         <v>7</v>
       </c>
@@ -4160,7 +4263,7 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="8"/>
@@ -4170,7 +4273,7 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="44"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -4178,7 +4281,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="44"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -4186,7 +4289,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="44"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -4194,7 +4297,7 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="44"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -4202,7 +4305,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="44"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -4210,7 +4313,7 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="44"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -4218,88 +4321,88 @@
       <c r="G15" s="1"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
+      <c r="B19" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
     </row>
     <row r="26" spans="2:7" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
+      <c r="B27" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4343,22 +4446,22 @@
         <v>5</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
@@ -4369,16 +4472,16 @@
         <v>28</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>42</v>
@@ -4395,16 +4498,16 @@
         <v>33</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>42</v>
@@ -4414,7 +4517,7 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="44" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="13" t="s">
@@ -4430,7 +4533,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>43</v>
@@ -4440,7 +4543,7 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="42"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="13" t="s">
         <v>11</v>
       </c>
@@ -4448,7 +4551,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="H7" s="13" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>43</v>
@@ -4458,7 +4561,7 @@
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="43"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="13" t="s">
         <v>7</v>
       </c>
@@ -4466,7 +4569,7 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="H8" s="13" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>64</v>
@@ -4477,7 +4580,7 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H9" s="13" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>88</v>
@@ -4488,393 +4591,393 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H10" s="13" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H11" s="13" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="47" t="s">
-        <v>183</v>
-      </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
+      <c r="B14" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="47" t="s">
-        <v>184</v>
-      </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
+      <c r="B18" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="44"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="44"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="44"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="44"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="44"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="44"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="47"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" s="44"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="44"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="44"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="44"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="44"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="44"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="44"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="44"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="44"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="44"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="44"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="47"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="44"/>
-      <c r="C56" s="44"/>
-      <c r="D56" s="44"/>
-      <c r="E56" s="44"/>
-      <c r="F56" s="44"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="47"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="44"/>
-      <c r="C57" s="44"/>
-      <c r="D57" s="44"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="44"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="44"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="44"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="47"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="44"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="44"/>
-      <c r="F59" s="44"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="47"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B60" s="44"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="44"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="47"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="44"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="44"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B62" s="44"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="44"/>
-      <c r="F62" s="44"/>
+      <c r="B62" s="47"/>
+      <c r="C62" s="47"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="47"/>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B63" s="44"/>
-      <c r="C63" s="44"/>
-      <c r="D63" s="44"/>
-      <c r="E63" s="44"/>
-      <c r="F63" s="44"/>
+      <c r="B63" s="47"/>
+      <c r="C63" s="47"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="47"/>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B64" s="44"/>
-      <c r="C64" s="44"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="44"/>
+      <c r="B64" s="47"/>
+      <c r="C64" s="47"/>
+      <c r="D64" s="47"/>
+      <c r="E64" s="47"/>
+      <c r="F64" s="47"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B65" s="44"/>
-      <c r="C65" s="44"/>
-      <c r="D65" s="44"/>
-      <c r="E65" s="44"/>
-      <c r="F65" s="44"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="47"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="47"/>
+      <c r="F65" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4892,7 +4995,7 @@
   <dimension ref="B2:J66"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:F21"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4906,7 +5009,7 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
@@ -4920,20 +5023,20 @@
         <v>92</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="G3"/>
       <c r="H3" s="6" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
@@ -4944,17 +5047,17 @@
         <v>28</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G4"/>
       <c r="H4" s="7" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>64</v>
@@ -4974,24 +5077,24 @@
         <v>33</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="44" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>12</v>
@@ -5004,7 +5107,7 @@
       <c r="I6"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="42"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="20" t="s">
         <v>11</v>
       </c>
@@ -5016,7 +5119,7 @@
       <c r="I7"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="43"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="20" t="s">
         <v>7</v>
       </c>
@@ -5040,64 +5143,64 @@
       <c r="I11"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="47" t="s">
-        <v>250</v>
-      </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
+      <c r="B14" s="50" t="s">
+        <v>301</v>
+      </c>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
     </row>
     <row r="17" spans="2:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="47" t="s">
-        <v>251</v>
-      </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
+      <c r="B18" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="26"/>
@@ -5427,10 +5530,468 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:M28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="K5" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="35" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="45"/>
+      <c r="C7" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="46"/>
+      <c r="C8" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="45"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="45"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="45"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="45"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="45"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="46"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="50" t="s">
+        <v>303</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+    </row>
+    <row r="26" spans="2:11" ht="97.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="50"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="B18:K26"/>
+    <mergeCell ref="B27:K28"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="J3" sqref="J3:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5444,18 +6005,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="B2" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
@@ -5468,20 +6029,16 @@
         <v>92</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>102</v>
+        <v>298</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="I3" s="6" t="s">
         <v>94</v>
       </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
       <c r="J3" s="6" t="s">
         <v>95</v>
       </c>
@@ -5490,30 +6047,26 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>93</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>105</v>
+        <v>286</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I4" s="7" t="s">
         <v>97</v>
       </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
         <v>98</v>
       </c>
@@ -5522,10 +6075,10 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="35" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -5534,30 +6087,26 @@
       <c r="E5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="35" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="35" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -5567,334 +6116,330 @@
         <v>12</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>12</v>
+        <v>287</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="K6" s="3"/>
+      <c r="K6" s="35"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="42"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="35" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="43"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="46"/>
+      <c r="C8" s="35" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="10" t="s">
-        <v>108</v>
-      </c>
+      <c r="F9" s="10"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="42"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="10" t="s">
-        <v>109</v>
-      </c>
+      <c r="F10" s="10"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="42"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="42"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="42"/>
-      <c r="C13" s="3"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="42"/>
-      <c r="C14" s="3"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="35"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="43"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="47" t="s">
-        <v>179</v>
-      </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
+      <c r="B18" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
     </row>
     <row r="26" spans="2:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="44" t="s">
-        <v>180</v>
-      </c>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
+      <c r="B27" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="47" t="s">
-        <v>185</v>
-      </c>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
+      <c r="B28" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
+      <c r="B30" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
+      <c r="B31" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B31:K32"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B9:B15"/>
     <mergeCell ref="B18:K26"/>
+    <mergeCell ref="B27:K27"/>
     <mergeCell ref="B28:K29"/>
-    <mergeCell ref="B31:K32"/>
-    <mergeCell ref="B27:K27"/>
     <mergeCell ref="B30:K30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6015,7 +6560,7 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="47" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -6040,7 +6585,7 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="44"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
@@ -6055,7 +6600,7 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="44"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
@@ -6070,7 +6615,7 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="2"/>
@@ -6089,7 +6634,7 @@
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="44"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
@@ -6106,7 +6651,7 @@
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="44"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -6121,138 +6666,138 @@
       <c r="L11" s="1"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
+      <c r="B15" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
+      <c r="B23" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6309,7 +6854,7 @@
         <v>66</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>76</v>
@@ -6327,13 +6872,13 @@
         <v>78</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>86</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>79</v>
@@ -6359,7 +6904,7 @@
         <v>68</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>73</v>
@@ -6377,13 +6922,13 @@
         <v>75</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>69</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="P4" s="15" t="s">
         <v>70</v>
@@ -6433,7 +6978,7 @@
         <v>80</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="P5" s="15" t="s">
         <v>82</v>
@@ -6443,7 +6988,7 @@
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="47" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -6481,13 +7026,13 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="44"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="11" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="17"/>
@@ -6507,7 +7052,7 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="44"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
@@ -6527,7 +7072,7 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="2"/>
@@ -6549,7 +7094,7 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="44"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
@@ -6569,7 +7114,7 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="44"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -6587,386 +7132,386 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="14" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="48" t="s">
-        <v>192</v>
-      </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="50"/>
+      <c r="B14" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="53"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="51"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="53"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="56"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="51"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="53"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="56"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="51"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="53"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="56"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="51"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="53"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="56"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B19" s="51"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="53"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="56"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B20" s="51"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="53"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="56"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B21" s="51"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="53"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="56"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="51"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="53"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="56"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B23" s="51"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="53"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="56"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B24" s="51"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="53"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="56"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B25" s="51"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="53"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="56"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B26" s="51"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="53"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="56"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B27" s="51"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="53"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="56"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B28" s="51"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="53"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="56"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B29" s="51"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="53"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="56"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B30" s="51"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="53"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="56"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B31" s="51"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="53"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="55"/>
+      <c r="Q31" s="56"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B32" s="54"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="56"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="58"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="58"/>
+      <c r="Q32" s="59"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B33" s="48" t="s">
-        <v>191</v>
-      </c>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="50"/>
+      <c r="B33" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="52"/>
+      <c r="P33" s="52"/>
+      <c r="Q33" s="53"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B34" s="54"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="55"/>
-      <c r="N34" s="55"/>
-      <c r="O34" s="55"/>
-      <c r="P34" s="55"/>
-      <c r="Q34" s="56"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="58"/>
+      <c r="O34" s="58"/>
+      <c r="P34" s="58"/>
+      <c r="Q34" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7016,13 +7561,13 @@
         <v>65</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
@@ -7044,13 +7589,13 @@
         <v>67</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -7090,7 +7635,7 @@
       <c r="O5" s="7"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="47" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -7112,7 +7657,7 @@
       <c r="O6" s="7"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="44"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
@@ -7132,7 +7677,7 @@
       <c r="O7" s="7"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="44"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="7" t="s">
         <v>7</v>
       </c>
@@ -7150,7 +7695,7 @@
       <c r="O8" s="7"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="7"/>
@@ -7168,7 +7713,7 @@
       <c r="O9" s="7"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="44"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -7184,7 +7729,7 @@
       <c r="O10" s="7"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="44"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -7200,488 +7745,488 @@
       <c r="O11" s="7"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="45" t="s">
-        <v>200</v>
-      </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
+      <c r="B14" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
     </row>
     <row r="16" spans="2:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
     </row>
     <row r="17" spans="2:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
+      <c r="B18" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="57"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="58"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="61"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="58"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="58"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="61"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="58"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="61"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="58"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="58"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="58"/>
-      <c r="O30" s="58"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="61"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="58"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="61"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="58"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="61"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="58"/>
-      <c r="O33" s="58"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="61"/>
+      <c r="O33" s="61"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="58"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="61"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="58"/>
-      <c r="M35" s="58"/>
-      <c r="N35" s="58"/>
-      <c r="O35" s="58"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="61"/>
+      <c r="N35" s="61"/>
+      <c r="O35" s="61"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="58"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="58"/>
-      <c r="N36" s="58"/>
-      <c r="O36" s="58"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="61"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="61"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="58"/>
-      <c r="L37" s="58"/>
-      <c r="M37" s="58"/>
-      <c r="N37" s="58"/>
-      <c r="O37" s="58"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="61"/>
+      <c r="N37" s="61"/>
+      <c r="O37" s="61"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="58"/>
-      <c r="L38" s="58"/>
-      <c r="M38" s="58"/>
-      <c r="N38" s="58"/>
-      <c r="O38" s="58"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="61"/>
+      <c r="L38" s="61"/>
+      <c r="M38" s="61"/>
+      <c r="N38" s="61"/>
+      <c r="O38" s="61"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="58"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="58"/>
-      <c r="L39" s="58"/>
-      <c r="M39" s="58"/>
-      <c r="N39" s="58"/>
-      <c r="O39" s="58"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="61"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="61"/>
+      <c r="L39" s="61"/>
+      <c r="M39" s="61"/>
+      <c r="N39" s="61"/>
+      <c r="O39" s="61"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="58"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="58"/>
-      <c r="K40" s="58"/>
-      <c r="L40" s="58"/>
-      <c r="M40" s="58"/>
-      <c r="N40" s="58"/>
-      <c r="O40" s="58"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="61"/>
+      <c r="M40" s="61"/>
+      <c r="N40" s="61"/>
+      <c r="O40" s="61"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="58"/>
-      <c r="L41" s="58"/>
-      <c r="M41" s="58"/>
-      <c r="N41" s="58"/>
-      <c r="O41" s="58"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="61"/>
+      <c r="L41" s="61"/>
+      <c r="M41" s="61"/>
+      <c r="N41" s="61"/>
+      <c r="O41" s="61"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B42" s="58"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="58"/>
-      <c r="K42" s="58"/>
-      <c r="L42" s="58"/>
-      <c r="M42" s="58"/>
-      <c r="N42" s="58"/>
-      <c r="O42" s="58"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="61"/>
+      <c r="J42" s="61"/>
+      <c r="K42" s="61"/>
+      <c r="L42" s="61"/>
+      <c r="M42" s="61"/>
+      <c r="N42" s="61"/>
+      <c r="O42" s="61"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B43" s="58"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="58"/>
-      <c r="L43" s="58"/>
-      <c r="M43" s="58"/>
-      <c r="N43" s="58"/>
-      <c r="O43" s="58"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="61"/>
+      <c r="J43" s="61"/>
+      <c r="K43" s="61"/>
+      <c r="L43" s="61"/>
+      <c r="M43" s="61"/>
+      <c r="N43" s="61"/>
+      <c r="O43" s="61"/>
     </row>
     <row r="44" spans="2:15" ht="146.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="58"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
-      <c r="K44" s="58"/>
-      <c r="L44" s="58"/>
-      <c r="M44" s="58"/>
-      <c r="N44" s="58"/>
-      <c r="O44" s="58"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="61"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="61"/>
+      <c r="M44" s="61"/>
+      <c r="N44" s="61"/>
+      <c r="O44" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7715,7 +8260,7 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
@@ -7726,10 +8271,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>16</v>
@@ -7743,7 +8288,7 @@
         <v>28</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>67</v>
@@ -7770,7 +8315,7 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="47" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -7785,25 +8330,25 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="44"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="44"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="14"/>
@@ -7812,393 +8357,393 @@
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="44"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="44"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="47" t="s">
-        <v>178</v>
-      </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
+      <c r="B14" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
     </row>
     <row r="18" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
     </row>
     <row r="19" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="47" t="s">
-        <v>190</v>
-      </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
+      <c r="B19" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="47"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="47"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="47"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="47"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="47"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="47"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" s="47"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="47"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="47"/>
-      <c r="C53" s="47"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="47"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="47"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="50"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="47"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="47"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="47"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="47"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="47"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="47"/>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="47"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="47"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="47"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="50"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B60" s="47"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="47"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="47"/>
-      <c r="C61" s="47"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="47"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B62" s="47"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="47"/>
-      <c r="F62" s="47"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="50"/>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B63" s="47"/>
-      <c r="C63" s="47"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="47"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="50"/>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B64" s="47"/>
-      <c r="C64" s="47"/>
-      <c r="D64" s="47"/>
-      <c r="E64" s="47"/>
-      <c r="F64" s="47"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="50"/>
     </row>
     <row r="65" spans="2:6" ht="152.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="47"/>
-      <c r="C65" s="47"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="47"/>
-      <c r="F65" s="47"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="50"/>
     </row>
     <row r="66" spans="2:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="47"/>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="50"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8230,7 +8775,7 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
@@ -8241,13 +8786,13 @@
         <v>5</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>65</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
@@ -8258,13 +8803,13 @@
         <v>28</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -8278,14 +8823,14 @@
         <v>80</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="47" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -8295,12 +8840,12 @@
         <v>12</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="44"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="14" t="s">
         <v>7</v>
       </c>
@@ -8309,16 +8854,16 @@
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="44"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="14" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="14"/>
@@ -8327,92 +8872,92 @@
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="44"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="44"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
+      <c r="B14" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="47" t="s">
-        <v>204</v>
-      </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
+      <c r="B20" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8446,7 +8991,7 @@
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
@@ -8454,49 +8999,49 @@
         <v>25</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="J3" s="24" t="s">
         <v>72</v>
       </c>
       <c r="K3" s="24" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="L3" s="24" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="M3" s="24" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="N3" s="24" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="O3" s="24" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="P3" s="24" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="Q3" s="24" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="R3" s="24" t="s">
         <v>51</v>
@@ -8507,52 +9052,52 @@
         <v>26</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>71</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="P4" s="18" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="Q4" s="18" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="R4" s="18" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
@@ -8579,20 +9124,20 @@
         <v>25</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="F6" s="23"/>
       <c r="G6" s="6" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
@@ -8610,20 +9155,20 @@
         <v>26</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="18" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="I7" s="23"/>
       <c r="J7" s="23"/>
@@ -8656,209 +9201,209 @@
       <c r="R8" s="23"/>
     </row>
     <row r="14" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="47" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
+      <c r="B14" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8871,10 +9416,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O24"/>
+  <dimension ref="B2:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8886,15 +9431,17 @@
     <col min="6" max="6" width="12.375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="8.75" style="4"/>
     <col min="11" max="11" width="15.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.75" style="4"/>
+    <col min="12" max="15" width="8.75" style="4"/>
+    <col min="16" max="16" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.75" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>25</v>
       </c>
@@ -8905,7 +9452,7 @@
         <v>92</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>91</v>
@@ -8917,19 +9464,19 @@
         <v>95</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>51</v>
@@ -8937,8 +9484,14 @@
       <c r="O3" s="6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="P3" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
@@ -8961,28 +9514,34 @@
         <v>98</v>
       </c>
       <c r="I4" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>277</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>99</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>32</v>
       </c>
@@ -8993,7 +9552,7 @@
         <v>33</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="F5" s="31" t="s">
         <v>39</v>
@@ -9008,16 +9567,16 @@
         <v>33</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="K5" s="31" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="L5" s="31" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="M5" s="33" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="N5" s="33" t="s">
         <v>54</v>
@@ -9025,9 +9584,15 @@
       <c r="O5" s="33" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="41" t="s">
+      <c r="P5" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q5" s="35" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B6" s="44" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -9037,7 +9602,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
@@ -9052,16 +9617,22 @@
       </c>
       <c r="K6" s="31"/>
       <c r="L6" s="31" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="M6" s="33" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="N6" s="33"/>
       <c r="O6" s="33"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="42"/>
+      <c r="P6" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q6" s="35" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B7" s="45"/>
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
@@ -9077,9 +9648,11 @@
       <c r="M7" s="33"/>
       <c r="N7" s="33"/>
       <c r="O7" s="33"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="43"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B8" s="46"/>
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
@@ -9095,55 +9668,61 @@
       <c r="M8" s="33"/>
       <c r="N8" s="33"/>
       <c r="O8" s="33"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="41" t="s">
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B9" s="44" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="10"/>
       <c r="E9" s="3" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="F9" s="31"/>
       <c r="G9" s="31"/>
       <c r="H9" s="31"/>
       <c r="I9" s="31"/>
       <c r="J9" s="31" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="K9" s="31"/>
       <c r="L9" s="31"/>
       <c r="M9" s="33"/>
       <c r="N9" s="33"/>
       <c r="O9" s="33"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="42"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B10" s="45"/>
       <c r="C10" s="3"/>
       <c r="D10" s="10"/>
       <c r="E10" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
       <c r="J10" s="31" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="K10" s="31"/>
       <c r="L10" s="31"/>
       <c r="M10" s="33"/>
       <c r="N10" s="33"/>
       <c r="O10" s="33"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="42"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B11" s="45"/>
       <c r="C11" s="3"/>
       <c r="D11" s="10"/>
       <c r="E11" s="3" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
@@ -9155,11 +9734,15 @@
       <c r="M11" s="33"/>
       <c r="N11" s="33"/>
       <c r="O11" s="33"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="42"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B12" s="45"/>
       <c r="C12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>311</v>
+      </c>
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
       <c r="H12" s="31"/>
@@ -9170,9 +9753,11 @@
       <c r="M12" s="33"/>
       <c r="N12" s="33"/>
       <c r="O12" s="33"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="42"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B13" s="45"/>
       <c r="C13" s="3"/>
       <c r="D13" s="10"/>
       <c r="E13" s="3"/>
@@ -9186,9 +9771,11 @@
       <c r="M13" s="33"/>
       <c r="N13" s="33"/>
       <c r="O13" s="33"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="42"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B14" s="45"/>
       <c r="C14" s="3"/>
       <c r="D14" s="10"/>
       <c r="E14" s="3"/>
@@ -9202,9 +9789,11 @@
       <c r="M14" s="33"/>
       <c r="N14" s="33"/>
       <c r="O14" s="33"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="43"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="46"/>
       <c r="C15" s="3"/>
       <c r="D15" s="10"/>
       <c r="E15" s="3"/>
@@ -9218,71 +9807,73 @@
       <c r="M15" s="33"/>
       <c r="N15" s="33"/>
       <c r="O15" s="33"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="47" t="s">
-        <v>294</v>
-      </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
+      <c r="B18" s="50" t="s">
+        <v>310</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
     </row>
     <row r="21" spans="2:8" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-    </row>
-    <row r="22" spans="2:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+    </row>
+    <row r="22" spans="2:8" ht="209.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="47"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9300,8 +9891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:H24"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9316,7 +9907,7 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="32" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
@@ -9330,13 +9921,13 @@
         <v>92</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>94</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>51</v>
@@ -9353,13 +9944,13 @@
         <v>93</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>97</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>99</v>
@@ -9376,7 +9967,7 @@
         <v>33</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="F5" s="31" t="s">
         <v>100</v>
@@ -9389,7 +9980,7 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="44" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="31" t="s">
@@ -9399,7 +9990,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="F6" s="31"/>
       <c r="G6" s="31" t="s">
@@ -9408,7 +9999,7 @@
       <c r="H6" s="31"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="42"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="31" t="s">
         <v>11</v>
       </c>
@@ -9419,7 +10010,7 @@
       <c r="H7" s="31"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="43"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="31" t="s">
         <v>7</v>
       </c>
@@ -9430,7 +10021,7 @@
       <c r="H8" s="31"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="44" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="31"/>
@@ -9441,7 +10032,7 @@
       <c r="H9" s="31"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="42"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="31"/>
       <c r="D10" s="10"/>
       <c r="E10" s="31"/>
@@ -9450,7 +10041,7 @@
       <c r="H10" s="31"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="42"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="31"/>
       <c r="D11" s="10"/>
       <c r="E11" s="31"/>
@@ -9459,7 +10050,7 @@
       <c r="H11" s="31"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="42"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="31"/>
       <c r="E12" s="31"/>
       <c r="F12" s="31"/>
@@ -9467,7 +10058,7 @@
       <c r="H12" s="31"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="42"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="31"/>
       <c r="D13" s="10"/>
       <c r="E13" s="31"/>
@@ -9476,7 +10067,7 @@
       <c r="H13" s="31"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="42"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="31"/>
       <c r="D14" s="10"/>
       <c r="E14" s="31"/>
@@ -9485,7 +10076,7 @@
       <c r="H14" s="31"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="43"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="31"/>
       <c r="D15" s="10"/>
       <c r="E15" s="31"/>
@@ -9494,71 +10085,71 @@
       <c r="H15" s="31"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="47" t="s">
-        <v>288</v>
-      </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
+      <c r="B18" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
     </row>
     <row r="22" spans="2:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="47" t="s">
-        <v>289</v>
-      </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
+      <c r="B23" s="50" t="s">
+        <v>278</v>
+      </c>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="4">
